--- a/RADTestData/PaymentsELHardCoded.xlsx
+++ b/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD000E8-FFD7-45EE-AE80-726FB240BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E50576A6-CEB8-4013-920F-B65218D8BCAF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
+    <workbookView windowHeight="18240" windowWidth="28110" xWindow="-120" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="157">
   <si>
     <t>Result</t>
   </si>
@@ -51,358 +51,467 @@
     <t>TaxTypeEL</t>
   </si>
   <si>
+    <t>Existing Liability</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fund Tax</t>
+  </si>
+  <si>
+    <t>CORP Tax</t>
+  </si>
+  <si>
+    <t>Fiduciary Tax</t>
+  </si>
+  <si>
+    <t>Personal Tax</t>
+  </si>
+  <si>
+    <t>Sales &amp; Use Tax</t>
+  </si>
+  <si>
+    <t>Tire Fee Tax</t>
+  </si>
+  <si>
+    <t>Withholding Tax</t>
+  </si>
+  <si>
+    <t>Alcohol Tax</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Nahida</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>2311 York road</t>
+  </si>
+  <si>
+    <t>Gambrills</t>
+  </si>
+  <si>
+    <t>25 Moan Road</t>
+  </si>
+  <si>
+    <t>Severn</t>
+  </si>
+  <si>
+    <t>1501 Mandan Terrace</t>
+  </si>
+  <si>
+    <t>Bowie</t>
+  </si>
+  <si>
+    <t>2336 Turn ct</t>
+  </si>
+  <si>
+    <t>Crofton</t>
+  </si>
+  <si>
+    <t>36 Hoolan Ave</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CCNumber</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>4012000098765439</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>5146312200000035</t>
+  </si>
+  <si>
+    <t>50.50</t>
+  </si>
+  <si>
+    <t>6011000993026909</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Stokes</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>FilingYear</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>123451234</t>
+  </si>
+  <si>
+    <t>123456523</t>
+  </si>
+  <si>
+    <t>123450145</t>
+  </si>
+  <si>
+    <t>123459630</t>
+  </si>
+  <si>
+    <t>123452514</t>
+  </si>
+  <si>
+    <t>123455555</t>
+  </si>
+  <si>
+    <t>123457754</t>
+  </si>
+  <si>
+    <t>123453210</t>
+  </si>
+  <si>
+    <t>FEIN</t>
+  </si>
+  <si>
+    <t>258369258</t>
+  </si>
+  <si>
+    <t>258369259</t>
+  </si>
+  <si>
+    <t>258369260</t>
+  </si>
+  <si>
+    <t>258369261</t>
+  </si>
+  <si>
+    <t>258369262</t>
+  </si>
+  <si>
+    <t>258369263</t>
+  </si>
+  <si>
+    <t>258369264</t>
+  </si>
+  <si>
+    <t>258369265</t>
+  </si>
+  <si>
+    <t>258369266</t>
+  </si>
+  <si>
+    <t>258369267</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>PTE Tax (LLC)</t>
+  </si>
+  <si>
+    <t>PTE Tax (Partnership)</t>
+  </si>
+  <si>
+    <t>PTE Tax (SCorp)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Existing Liability</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fund Tax</t>
-  </si>
-  <si>
-    <t>CORP Tax</t>
-  </si>
-  <si>
-    <t>Fiduciary Tax</t>
-  </si>
-  <si>
-    <t>Personal Tax</t>
-  </si>
-  <si>
-    <t>Sales &amp; Use Tax</t>
-  </si>
-  <si>
-    <t>Tire Fee Tax</t>
-  </si>
-  <si>
-    <t>Withholding Tax</t>
-  </si>
-  <si>
-    <t>Alcohol Tax</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Alec</t>
-  </si>
-  <si>
-    <t>Stuart</t>
-  </si>
-  <si>
-    <t>Broad</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Nahida</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>AL1</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>2311 York road</t>
-  </si>
-  <si>
-    <t>Gambrills</t>
-  </si>
-  <si>
-    <t>25 Moan Road</t>
-  </si>
-  <si>
-    <t>Severn</t>
-  </si>
-  <si>
-    <t>1501 Mandan Terrace</t>
-  </si>
-  <si>
-    <t>Bowie</t>
-  </si>
-  <si>
-    <t>2336 Turn ct</t>
-  </si>
-  <si>
-    <t>Crofton</t>
-  </si>
-  <si>
-    <t>36 Hoolan Ave</t>
-  </si>
-  <si>
-    <t>Huntsville</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>CCNumber</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>4012000098765439</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>5146312200000035</t>
-  </si>
-  <si>
-    <t>50.50</t>
-  </si>
-  <si>
-    <t>6011000993026909</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Stokes</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>FilingYear</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>123451234</t>
-  </si>
-  <si>
-    <t>123456523</t>
-  </si>
-  <si>
-    <t>123450145</t>
-  </si>
-  <si>
-    <t>123459630</t>
-  </si>
-  <si>
-    <t>123452514</t>
-  </si>
-  <si>
-    <t>123455555</t>
-  </si>
-  <si>
-    <t>123457754</t>
-  </si>
-  <si>
-    <t>123453210</t>
-  </si>
-  <si>
-    <t>FEIN</t>
-  </si>
-  <si>
-    <t>258369258</t>
-  </si>
-  <si>
-    <t>258369259</t>
-  </si>
-  <si>
-    <t>258369260</t>
-  </si>
-  <si>
-    <t>258369261</t>
-  </si>
-  <si>
-    <t>258369262</t>
-  </si>
-  <si>
-    <t>258369263</t>
-  </si>
-  <si>
-    <t>258369264</t>
-  </si>
-  <si>
-    <t>258369265</t>
-  </si>
-  <si>
-    <t>258369266</t>
-  </si>
-  <si>
-    <t>258369267</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>PTE Tax (LLC)</t>
-  </si>
-  <si>
-    <t>PTE Tax (Partnership)</t>
-  </si>
-  <si>
-    <t>PTE Tax (SCorp)</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:54:50 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:55:42 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:56:32 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:57:22 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:58:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 20:59:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:00:54 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:01:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:02:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:03:23 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:04:12 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:05:01 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:05:51 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:06:40 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:16:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:17:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:17:54 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:18:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:19:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:20:25 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:21:15 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:22:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:22:54 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:23:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:24:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:25:53 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:27:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:28:02 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:28:52 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:29:41 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:30:30 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:31:20 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:32:09 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 21:32:59 EDT 2021</t>
+    <t>Mon Nov 08 22:38:39 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:39:23 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:40:05 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:40:49 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:41:31 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:42:13 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:42:56 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:43:38 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:44:21 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:45:04 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:45:49 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:46:32 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:47:18 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:48:00 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:48:43 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:49:28 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:50:11 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:50:56 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:51:39 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:52:23 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:53:05 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:53:48 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:54:30 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:55:14 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:55:56 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:56:39 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:57:22 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:58:04 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:58:46 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 22:59:29 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:00:11 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:00:52 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:01:35 EST 2021</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:02:20 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:07:00 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:07:43 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:08:27 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:09:11 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:09:54 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:10:37 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:11:19 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:12:01 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:12:44 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:13:25 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:14:08 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:14:50 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:15:32 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:16:15 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:16:58 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:17:40 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:18:24 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:19:06 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:19:48 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:20:30 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:21:12 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:21:54 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:22:37 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:23:21 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:24:03 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:24:47 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:25:30 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:26:12 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:26:54 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:27:37 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:28:21 EST 2021</t>
+  </si>
+  <si>
+    <t>Mon Nov 08 23:29:03 EST 2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Nov 09 17:03:56 EST 2021</t>
+  </si>
+  <si>
+    <t>Fri Nov 19 12:10:23 EST 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,19 +560,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,10 +589,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -518,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -570,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -681,21 +790,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -712,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -764,37 +873,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" style="1" collapsed="1"/>
-    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="12" max="12" style="1" width="10.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="17" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -814,2914 +923,2949 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="1">
         <v>21054</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="1">
         <v>21054</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M4" s="1">
         <v>21114</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M5" s="1">
         <v>21114</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M6" s="1">
         <v>20720</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M7" s="1">
         <v>20720</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M8" s="1">
         <v>21144</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M9" s="1">
         <v>21144</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="1">
         <v>21093</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M11" s="1">
         <v>21093</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M12" s="1">
         <v>21054</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M13" s="1">
         <v>21054</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M14" s="1">
         <v>21114</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M15" s="1">
         <v>21114</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M16" s="1">
         <v>20720</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M17" s="1">
         <v>20720</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M18" s="1">
         <v>21144</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M19" s="1">
         <v>21144</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M20" s="1">
         <v>21093</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M21" s="1">
         <v>21093</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M22" s="1">
         <v>21054</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M23" s="1">
         <v>21054</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M24" s="1">
         <v>21054</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M25" s="1">
         <v>21054</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M26" s="1">
         <v>21114</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M27" s="1">
         <v>21114</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M28" s="1">
         <v>20720</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M29" s="1">
         <v>20720</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M30" s="1">
         <v>21144</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M31" s="1">
         <v>21144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M32" s="1">
         <v>21093</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M33" s="1">
         <v>21093</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M34" s="1">
         <v>21054</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M35" s="1">
         <v>21054</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M36" s="1">
         <v>21114</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M37" s="1">
         <v>21114</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M38" s="1">
         <v>20720</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M39" s="1">
         <v>20720</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M40" s="1">
         <v>21144</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M41" s="1">
         <v>21144</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M42" s="1">
         <v>21093</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M43" s="1">
         <v>21093</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M44" s="1">
         <v>21054</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M45" s="1">
         <v>21054</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M46" s="1">
         <v>21054</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M47" s="1">
         <v>21054</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M48" s="1">
         <v>21114</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M49" s="1">
         <v>21114</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M50" s="1">
         <v>20720</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M51" s="1">
         <v>20720</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M52" s="1">
         <v>21144</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M53" s="1">
         <v>21144</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M54" s="1">
         <v>21093</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M55" s="1">
         <v>21093</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M56" s="1">
         <v>21054</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M57" s="1">
         <v>21054</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M58" s="1">
         <v>21114</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M59" s="1">
         <v>21114</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P59" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M60" s="1">
         <v>20720</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M61" s="1">
         <v>20720</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="P61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M62" s="1">
         <v>21144</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M63" s="1">
         <v>21144</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M64" s="1">
         <v>21093</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65" s="1" t="s">
-        <v>5</v>
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M65" s="1">
         <v>21093</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M66" s="1">
         <v>21054</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67" s="1" t="s">
-        <v>5</v>
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>153</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M67" s="1">
         <v>21054</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>